--- a/PHYLIS LEPAPA.xlsx
+++ b/PHYLIS LEPAPA.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1200" yWindow="975" windowWidth="17475" windowHeight="10920" firstSheet="7" activeTab="10"/>
   </bookViews>
@@ -23,7 +28,7 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -594,7 +599,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1398,7 +1403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1433,7 +1438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5116,7 +5121,7 @@
   <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5995,10 +6000,12 @@
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="63">
+        <v>2200</v>
+      </c>
       <c r="H18" s="64">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="I18" s="62"/>
       <c r="J18" s="56"/>
@@ -6951,11 +6958,11 @@
       </c>
       <c r="G37" s="63">
         <f>SUM(G5:G36)</f>
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="H37" s="63">
         <f t="shared" si="7"/>
-        <v>149460</v>
+        <v>147260</v>
       </c>
       <c r="I37" s="62"/>
       <c r="J37" s="56"/>
@@ -7204,7 +7211,7 @@
       </c>
       <c r="F45" s="76">
         <f>G37</f>
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
@@ -7638,7 +7645,7 @@
       </c>
       <c r="F58" s="80">
         <f>F45+F46-G49</f>
-        <v>7493</v>
+        <v>9693</v>
       </c>
       <c r="G58" s="44">
         <f>SUM(G51:G57)</f>
@@ -7646,7 +7653,7 @@
       </c>
       <c r="H58" s="44">
         <f>F58-G58</f>
-        <v>-6604</v>
+        <v>-4404</v>
       </c>
       <c r="I58" s="35"/>
       <c r="J58" s="56"/>

--- a/PHYLIS LEPAPA.xlsx
+++ b/PHYLIS LEPAPA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="975" windowWidth="17475" windowHeight="10920" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="1200" yWindow="975" windowWidth="17475" windowHeight="10920" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRUARY 21" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,12 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="190">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -594,6 +595,15 @@
   </si>
   <si>
     <t>DEC</t>
+  </si>
+  <si>
+    <t>WINNIE WANGECHI</t>
+  </si>
+  <si>
+    <t>JACLINE VACCATED</t>
+  </si>
+  <si>
+    <t>PAID ON 15/12</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1203,7 @@
       <sheetData sheetId="11">
         <row r="28">
           <cell r="E28">
-            <v>30000</v>
+            <v>32000</v>
           </cell>
         </row>
       </sheetData>
@@ -2920,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5017,9 +5027,13 @@
       <c r="N55" s="76"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="81"/>
+      <c r="A56" s="81" t="s">
+        <v>188</v>
+      </c>
       <c r="B56" s="37"/>
-      <c r="C56" s="80"/>
+      <c r="C56" s="80">
+        <v>8100</v>
+      </c>
       <c r="D56" s="37"/>
       <c r="E56" s="81"/>
       <c r="F56" s="37"/>
@@ -5048,11 +5062,11 @@
       </c>
       <c r="C58" s="44">
         <f>SUM(C51:C57)</f>
-        <v>63286</v>
+        <v>71386</v>
       </c>
       <c r="D58" s="44">
         <f>B58-C58</f>
-        <v>58600</v>
+        <v>50500</v>
       </c>
       <c r="E58" s="37" t="s">
         <v>11</v>
@@ -5120,8 +5134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5434,9 +5448,7 @@
       <c r="W7" s="56"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>119</v>
-      </c>
+      <c r="A8" s="25"/>
       <c r="B8" s="60">
         <v>4</v>
       </c>
@@ -5445,17 +5457,15 @@
         <f>'NOVEMBER 21'!H8:H39</f>
         <v>0</v>
       </c>
-      <c r="E8" s="63">
-        <v>2700</v>
-      </c>
+      <c r="E8" s="63"/>
       <c r="F8" s="63">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="64">
         <f>F8-G8</f>
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="56"/>
@@ -5564,10 +5574,12 @@
         <f>C10+D10+E10</f>
         <v>6350</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="63">
+        <v>6350</v>
+      </c>
       <c r="H10" s="64">
         <f t="shared" si="1"/>
-        <v>6350</v>
+        <v>0</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="56"/>
@@ -5775,25 +5787,21 @@
         <f>'NOVEMBER 21'!H14:H45</f>
         <v>8100</v>
       </c>
-      <c r="E14" s="63">
-        <v>2700</v>
-      </c>
+      <c r="E14" s="63"/>
       <c r="F14" s="63">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>8100</v>
       </c>
       <c r="G14" s="63"/>
       <c r="H14" s="64">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>8100</v>
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
       <c r="L14" s="56"/>
-      <c r="M14" s="65" t="s">
-        <v>120</v>
-      </c>
+      <c r="M14" s="65"/>
       <c r="N14" s="68">
         <v>20</v>
       </c>
@@ -5802,17 +5810,15 @@
         <f>'NOVEMBER 21'!T14:T33</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="63">
-        <v>2000</v>
-      </c>
+      <c r="Q14" s="63"/>
       <c r="R14" s="66">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="S14" s="63"/>
       <c r="T14" s="64">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="56" t="s">
         <v>101</v>
@@ -5839,10 +5845,12 @@
         <f t="shared" si="0"/>
         <v>5780</v>
       </c>
-      <c r="G15" s="63"/>
+      <c r="G15" s="63">
+        <v>1500</v>
+      </c>
       <c r="H15" s="64">
         <f t="shared" si="1"/>
-        <v>5780</v>
+        <v>4280</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="56"/>
@@ -5930,7 +5938,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="B17" s="60">
         <v>13</v>
@@ -5940,15 +5948,17 @@
         <f>'NOVEMBER 21'!H17:H48</f>
         <v>0</v>
       </c>
-      <c r="E17" s="63"/>
+      <c r="E17" s="63">
+        <v>2700</v>
+      </c>
       <c r="F17" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="G17" s="63"/>
       <c r="H17" s="64">
         <f>F17-G17</f>
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="56"/>
@@ -6057,10 +6067,12 @@
         <f>C19+D19+E19</f>
         <v>3050</v>
       </c>
-      <c r="G19" s="63"/>
+      <c r="G19" s="63">
+        <v>1200</v>
+      </c>
       <c r="H19" s="64">
         <f t="shared" si="1"/>
-        <v>3050</v>
+        <v>1850</v>
       </c>
       <c r="I19" s="62"/>
       <c r="J19" s="56"/>
@@ -6112,10 +6124,12 @@
         <f>C20+D20+E20</f>
         <v>2300</v>
       </c>
-      <c r="G20" s="63"/>
+      <c r="G20" s="63">
+        <v>2300</v>
+      </c>
       <c r="H20" s="64">
         <f t="shared" si="1"/>
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="I20" s="62"/>
       <c r="J20" s="56"/>
@@ -6226,10 +6240,12 @@
         <f>C22+D22+E22</f>
         <v>2800</v>
       </c>
-      <c r="G22" s="63"/>
+      <c r="G22" s="63">
+        <v>2500</v>
+      </c>
       <c r="H22" s="64">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="I22" s="62"/>
       <c r="J22" s="56"/>
@@ -6317,25 +6333,26 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="B24" s="68">
         <v>20</v>
       </c>
       <c r="C24" s="61"/>
-      <c r="D24" s="62">
-        <f>'NOVEMBER 21'!H24:H55</f>
-        <v>10100</v>
-      </c>
-      <c r="E24" s="63"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63">
+        <v>2700</v>
+      </c>
       <c r="F24" s="63">
         <f t="shared" si="0"/>
-        <v>10100</v>
-      </c>
-      <c r="G24" s="63"/>
+        <v>2700</v>
+      </c>
+      <c r="G24" s="63">
+        <v>2700</v>
+      </c>
       <c r="H24" s="64">
         <f t="shared" si="1"/>
-        <v>10100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="62"/>
       <c r="J24" s="56"/>
@@ -6407,11 +6424,11 @@
       </c>
       <c r="Q25" s="63">
         <f t="shared" ref="Q25:T25" si="4">SUM(Q5:Q24)</f>
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="R25" s="66">
         <f t="shared" si="4"/>
-        <v>135600</v>
+        <v>133600</v>
       </c>
       <c r="S25" s="63">
         <f t="shared" si="4"/>
@@ -6419,7 +6436,7 @@
       </c>
       <c r="T25" s="63">
         <f t="shared" si="4"/>
-        <v>135600</v>
+        <v>133600</v>
       </c>
       <c r="U25" s="56"/>
       <c r="V25" s="56"/>
@@ -6484,10 +6501,12 @@
         <f t="shared" si="0"/>
         <v>9100</v>
       </c>
-      <c r="G27" s="63"/>
+      <c r="G27" s="63">
+        <v>2000</v>
+      </c>
       <c r="H27" s="64">
         <f t="shared" si="1"/>
-        <v>9100</v>
+        <v>7100</v>
       </c>
       <c r="I27" s="62"/>
       <c r="J27" s="76"/>
@@ -6524,10 +6543,12 @@
         <f>C28+D28+E28</f>
         <v>5400</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="63">
+        <v>2700</v>
+      </c>
       <c r="H28" s="64">
         <f>F28-G28</f>
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="I28" s="62"/>
       <c r="J28" s="56"/>
@@ -6548,8 +6569,8 @@
       <c r="W28" s="56"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
-        <v>176</v>
+      <c r="A29" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="60">
         <v>25</v>
@@ -6559,17 +6580,15 @@
         <f>'NOVEMBER 21'!H29:H60</f>
         <v>0</v>
       </c>
-      <c r="E29" s="63">
-        <v>2700</v>
-      </c>
+      <c r="E29" s="63"/>
       <c r="F29" s="63">
         <f>C29+D29+E29</f>
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="G29" s="63"/>
       <c r="H29" s="64">
         <f>F29-G29</f>
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="I29" s="62"/>
       <c r="J29" s="56"/>
@@ -6664,10 +6683,12 @@
         <f t="shared" si="5"/>
         <v>6400</v>
       </c>
-      <c r="G31" s="63"/>
+      <c r="G31" s="63">
+        <v>6400</v>
+      </c>
       <c r="H31" s="64">
         <f t="shared" si="6"/>
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="I31" s="62"/>
       <c r="J31" s="56"/>
@@ -6678,7 +6699,7 @@
       </c>
       <c r="N31" s="44">
         <f>Q25</f>
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
@@ -6714,10 +6735,12 @@
         <f t="shared" si="5"/>
         <v>8200</v>
       </c>
-      <c r="G32" s="63"/>
+      <c r="G32" s="63">
+        <v>4000</v>
+      </c>
       <c r="H32" s="64">
         <f t="shared" si="6"/>
-        <v>8200</v>
+        <v>4200</v>
       </c>
       <c r="I32" s="62"/>
       <c r="J32" s="56"/>
@@ -6764,10 +6787,12 @@
         <f t="shared" si="5"/>
         <v>6400</v>
       </c>
-      <c r="G33" s="63"/>
+      <c r="G33" s="63">
+        <v>6400</v>
+      </c>
       <c r="H33" s="64">
         <f t="shared" si="6"/>
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="I33" s="62"/>
       <c r="J33" s="56"/>
@@ -6812,10 +6837,12 @@
         <f t="shared" si="5"/>
         <v>7400</v>
       </c>
-      <c r="G34" s="63"/>
+      <c r="G34" s="63">
+        <v>7400</v>
+      </c>
       <c r="H34" s="64">
         <f t="shared" si="6"/>
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="I34" s="62"/>
       <c r="J34" s="56"/>
@@ -6854,10 +6881,12 @@
         <f t="shared" si="5"/>
         <v>9500</v>
       </c>
-      <c r="G35" s="63"/>
+      <c r="G35" s="63">
+        <v>7000</v>
+      </c>
       <c r="H35" s="64">
         <f t="shared" si="6"/>
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="I35" s="62"/>
       <c r="J35" s="56"/>
@@ -6871,7 +6900,7 @@
       </c>
       <c r="O35" s="44">
         <f>N35*N31</f>
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="P35" s="37"/>
       <c r="Q35" s="37" t="s">
@@ -6880,7 +6909,7 @@
       <c r="R35" s="44"/>
       <c r="S35" s="44">
         <f>R36*N31</f>
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="T35" s="37"/>
       <c r="U35" s="56"/>
@@ -6906,10 +6935,12 @@
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G36" s="63"/>
+      <c r="G36" s="63">
+        <v>10000</v>
+      </c>
       <c r="H36" s="64">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="62"/>
       <c r="J36" s="56"/>
@@ -6946,23 +6977,23 @@
       </c>
       <c r="D37" s="62">
         <f>SUM(D5:D36)</f>
-        <v>62060</v>
+        <v>51960</v>
       </c>
       <c r="E37" s="27">
         <f t="shared" si="7"/>
-        <v>89600</v>
+        <v>86900</v>
       </c>
       <c r="F37" s="63">
         <f t="shared" si="7"/>
-        <v>151660</v>
+        <v>138860</v>
       </c>
       <c r="G37" s="63">
         <f>SUM(G5:G36)</f>
-        <v>4400</v>
+        <v>66850</v>
       </c>
       <c r="H37" s="63">
         <f t="shared" si="7"/>
-        <v>147260</v>
+        <v>72010</v>
       </c>
       <c r="I37" s="62"/>
       <c r="J37" s="56"/>
@@ -7008,7 +7039,7 @@
       <c r="N38" s="56"/>
       <c r="O38" s="76">
         <f>Q8+Q21+Q10+Q14+Q12</f>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P38" s="80"/>
       <c r="Q38" s="81" t="s">
@@ -7017,7 +7048,7 @@
       <c r="R38" s="56"/>
       <c r="S38" s="76">
         <f>Q8+Q10+Q12+Q14+Q21</f>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="T38" s="37"/>
       <c r="U38" s="56"/>
@@ -7202,7 +7233,7 @@
       </c>
       <c r="B45" s="44">
         <f>E37</f>
-        <v>89600</v>
+        <v>86900</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -7211,7 +7242,7 @@
       </c>
       <c r="F45" s="76">
         <f>G37</f>
-        <v>4400</v>
+        <v>66850</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
@@ -7224,30 +7255,30 @@
       </c>
       <c r="N45" s="44">
         <f>N34+N31+N32+N33-O35</f>
-        <v>131421</v>
+        <v>129621</v>
       </c>
       <c r="O45" s="44">
         <f>SUM(O37:O44)</f>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P45" s="44">
         <f>N45-O45</f>
-        <v>121421</v>
+        <v>121621</v>
       </c>
       <c r="Q45" s="37" t="s">
         <v>11</v>
       </c>
       <c r="R45" s="80">
         <f>R31+R32-S35</f>
-        <v>-4179</v>
+        <v>-3979</v>
       </c>
       <c r="S45" s="44">
         <f>SUM(S37:S44)</f>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="T45" s="44">
         <f>R45-S45</f>
-        <v>-14179</v>
+        <v>-11979</v>
       </c>
       <c r="U45" s="56"/>
       <c r="V45" s="56"/>
@@ -7259,7 +7290,7 @@
       </c>
       <c r="B46" s="44">
         <f>'NOVEMBER 21'!D58</f>
-        <v>58600</v>
+        <v>50500</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -7374,7 +7405,7 @@
       </c>
       <c r="C49" s="44">
         <f>B49*B45</f>
-        <v>8960</v>
+        <v>8690</v>
       </c>
       <c r="D49" s="37"/>
       <c r="E49" s="37" t="s">
@@ -7383,7 +7414,7 @@
       <c r="F49" s="44"/>
       <c r="G49" s="44">
         <f>F50*B45</f>
-        <v>8960</v>
+        <v>8690</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="35"/>
@@ -7500,13 +7531,21 @@
       <c r="W52" s="56"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
+      <c r="A53" s="81" t="s">
+        <v>189</v>
+      </c>
       <c r="B53" s="78"/>
-      <c r="C53" s="37"/>
+      <c r="C53" s="37">
+        <v>20102</v>
+      </c>
       <c r="D53" s="37"/>
-      <c r="E53" s="81"/>
+      <c r="E53" s="81" t="s">
+        <v>189</v>
+      </c>
       <c r="F53" s="78"/>
-      <c r="G53" s="37"/>
+      <c r="G53" s="37">
+        <v>20102</v>
+      </c>
       <c r="H53" s="37"/>
       <c r="I53" s="77"/>
       <c r="J53" s="76"/>
@@ -7630,30 +7669,30 @@
       </c>
       <c r="B58" s="44">
         <f>B48+B45+B46+B47-C49</f>
-        <v>139240</v>
+        <v>128710</v>
       </c>
       <c r="C58" s="44">
         <f>SUM(C51:C57)</f>
-        <v>14097</v>
+        <v>34199</v>
       </c>
       <c r="D58" s="44">
         <f>B58-C58</f>
-        <v>125143</v>
+        <v>94511</v>
       </c>
       <c r="E58" s="37" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="80">
         <f>F45+F46-G49</f>
-        <v>9693</v>
+        <v>72413</v>
       </c>
       <c r="G58" s="44">
         <f>SUM(G51:G57)</f>
-        <v>14097</v>
+        <v>34199</v>
       </c>
       <c r="H58" s="44">
         <f>F58-G58</f>
-        <v>-4404</v>
+        <v>38214</v>
       </c>
       <c r="I58" s="35"/>
       <c r="J58" s="56"/>
